--- a/data/output/FV2304_FV2210/UTILMD/11014.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11014.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17232" uniqueCount="973">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17253" uniqueCount="973">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3154,6 +3154,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U786" totalsRowShown="0">
+  <autoFilter ref="A1:U786"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3443,7 +3473,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U786"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -39860,5 +39893,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11014.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11014.xlsx
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -8157,7 +8157,7 @@
         <v>881</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -8361,7 +8361,7 @@
         <v>882</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -8565,7 +8565,7 @@
         <v>883</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -8769,7 +8769,7 @@
         <v>884</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -9301,7 +9301,7 @@
         <v>885</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -9509,7 +9509,7 @@
         <v>886</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -9771,7 +9771,7 @@
         <v>888</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -9919,7 +9919,7 @@
         <v>889</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -10677,7 +10677,7 @@
         <v>893</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -10881,7 +10881,7 @@
         <v>894</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -11139,7 +11139,7 @@
         <v>895</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -11597,7 +11597,7 @@
         <v>896</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -11999,7 +11999,7 @@
         <v>884</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -12287,7 +12287,7 @@
         <v>897</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -12645,7 +12645,7 @@
         <v>900</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -12891,7 +12891,7 @@
         <v>902</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -13325,7 +13325,7 @@
         <v>904</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -13611,7 +13611,7 @@
         <v>905</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -13867,7 +13867,7 @@
         <v>904</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -14055,7 +14055,7 @@
         <v>906</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -14243,7 +14243,7 @@
         <v>904</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -14431,7 +14431,7 @@
         <v>895</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -14619,7 +14619,7 @@
         <v>907</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -14907,7 +14907,7 @@
         <v>908</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -15191,7 +15191,7 @@
         <v>904</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -15589,7 +15589,7 @@
         <v>909</v>
       </c>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -15799,7 +15799,7 @@
         <v>895</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -16141,7 +16141,7 @@
         <v>904</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -16483,7 +16483,7 @@
         <v>904</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -16919,7 +16919,7 @@
         <v>911</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -17071,7 +17071,7 @@
         <v>912</v>
       </c>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -17361,7 +17361,7 @@
         <v>913</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -17809,7 +17809,7 @@
         <v>893</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -18107,7 +18107,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -18447,7 +18447,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -18861,7 +18861,7 @@
         <v>904</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -19069,7 +19069,7 @@
         <v>915</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -19273,7 +19273,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -19571,7 +19571,7 @@
         <v>916</v>
       </c>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -19971,7 +19971,7 @@
         <v>919</v>
       </c>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -20457,7 +20457,7 @@
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -20809,7 +20809,7 @@
         <v>923</v>
       </c>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -20997,7 +20997,7 @@
         <v>923</v>
       </c>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -21241,7 +21241,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -21377,7 +21377,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -21527,7 +21527,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -21731,7 +21731,7 @@
         <v>926</v>
       </c>
       <c r="L323" s="4"/>
-      <c r="M323" s="2" t="s">
+      <c r="M323" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N323" s="2" t="s">
@@ -22127,7 +22127,7 @@
         <v>927</v>
       </c>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -22377,7 +22377,7 @@
         <v>929</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -22565,7 +22565,7 @@
         <v>904</v>
       </c>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="K343" s="2"/>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -23015,7 +23015,7 @@
         <v>930</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -23261,7 +23261,7 @@
         <v>904</v>
       </c>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -23399,7 +23399,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -23543,7 +23543,7 @@
       </c>
       <c r="K360" s="2"/>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -23991,7 +23991,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -24143,7 +24143,7 @@
         <v>931</v>
       </c>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -24351,7 +24351,7 @@
         <v>932</v>
       </c>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -24557,7 +24557,7 @@
         <v>933</v>
       </c>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -24695,7 +24695,7 @@
       </c>
       <c r="K383" s="2"/>
       <c r="L383" s="4"/>
-      <c r="M383" s="2" t="s">
+      <c r="M383" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N383" s="2" t="s">
@@ -24839,7 +24839,7 @@
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -24975,7 +24975,7 @@
       </c>
       <c r="K389" s="2"/>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -25611,7 +25611,7 @@
         <v>936</v>
       </c>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -25893,7 +25893,7 @@
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -26137,7 +26137,7 @@
         <v>937</v>
       </c>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -26517,7 +26517,7 @@
         <v>938</v>
       </c>
       <c r="L420" s="4"/>
-      <c r="M420" s="2" t="s">
+      <c r="M420" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N420" s="2" t="s">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -26807,7 +26807,7 @@
         <v>940</v>
       </c>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="4"/>
-      <c r="M429" s="2" t="s">
+      <c r="M429" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N429" s="2" t="s">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="K437" s="2"/>
       <c r="L437" s="4"/>
-      <c r="M437" s="2" t="s">
+      <c r="M437" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N437" s="2" t="s">
@@ -27489,7 +27489,7 @@
         <v>904</v>
       </c>
       <c r="L440" s="4"/>
-      <c r="M440" s="2" t="s">
+      <c r="M440" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N440" s="2" t="s">
@@ -27885,7 +27885,7 @@
         <v>895</v>
       </c>
       <c r="L448" s="4"/>
-      <c r="M448" s="2" t="s">
+      <c r="M448" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N448" s="2" t="s">
@@ -28173,7 +28173,7 @@
         <v>941</v>
       </c>
       <c r="L454" s="4"/>
-      <c r="M454" s="2" t="s">
+      <c r="M454" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N454" s="2" t="s">
@@ -28311,7 +28311,7 @@
       </c>
       <c r="K457" s="2"/>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -28463,7 +28463,7 @@
         <v>942</v>
       </c>
       <c r="L460" s="4"/>
-      <c r="M460" s="2" t="s">
+      <c r="M460" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N460" s="2" t="s">
@@ -28609,7 +28609,7 @@
       </c>
       <c r="K463" s="2"/>
       <c r="L463" s="4"/>
-      <c r="M463" s="2" t="s">
+      <c r="M463" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N463" s="2" t="s">
@@ -29769,7 +29769,7 @@
         <v>895</v>
       </c>
       <c r="L485" s="4"/>
-      <c r="M485" s="2" t="s">
+      <c r="M485" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N485" s="2" t="s">
@@ -30947,7 +30947,7 @@
       </c>
       <c r="K507" s="2"/>
       <c r="L507" s="4"/>
-      <c r="M507" s="2" t="s">
+      <c r="M507" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N507" s="2" t="s">
@@ -31095,7 +31095,7 @@
         <v>944</v>
       </c>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -31303,7 +31303,7 @@
         <v>904</v>
       </c>
       <c r="L514" s="4"/>
-      <c r="M514" s="2" t="s">
+      <c r="M514" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N514" s="2" t="s">
@@ -31457,7 +31457,7 @@
         <v>904</v>
       </c>
       <c r="L517" s="4"/>
-      <c r="M517" s="2" t="s">
+      <c r="M517" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N517" s="2" t="s">
@@ -31663,7 +31663,7 @@
         <v>945</v>
       </c>
       <c r="L521" s="4"/>
-      <c r="M521" s="2" t="s">
+      <c r="M521" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N521" s="2" t="s">
@@ -31951,7 +31951,7 @@
         <v>946</v>
       </c>
       <c r="L527" s="4"/>
-      <c r="M527" s="2" t="s">
+      <c r="M527" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N527" s="2" t="s">
@@ -32089,7 +32089,7 @@
       </c>
       <c r="K530" s="2"/>
       <c r="L530" s="4"/>
-      <c r="M530" s="2" t="s">
+      <c r="M530" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N530" s="2" t="s">
@@ -32237,7 +32237,7 @@
       </c>
       <c r="K533" s="2"/>
       <c r="L533" s="4"/>
-      <c r="M533" s="2" t="s">
+      <c r="M533" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N533" s="2" t="s">
@@ -32373,7 +32373,7 @@
       </c>
       <c r="K536" s="2"/>
       <c r="L536" s="4"/>
-      <c r="M536" s="2" t="s">
+      <c r="M536" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N536" s="2" t="s">
@@ -32519,7 +32519,7 @@
         <v>946</v>
       </c>
       <c r="L539" s="4"/>
-      <c r="M539" s="2" t="s">
+      <c r="M539" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N539" s="2" t="s">
@@ -32657,7 +32657,7 @@
       </c>
       <c r="K542" s="2"/>
       <c r="L542" s="4"/>
-      <c r="M542" s="2" t="s">
+      <c r="M542" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N542" s="2" t="s">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="K545" s="2"/>
       <c r="L545" s="4"/>
-      <c r="M545" s="2" t="s">
+      <c r="M545" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N545" s="2" t="s">
@@ -32937,7 +32937,7 @@
       </c>
       <c r="K548" s="2"/>
       <c r="L548" s="4"/>
-      <c r="M548" s="2" t="s">
+      <c r="M548" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N548" s="2" t="s">
@@ -33083,7 +33083,7 @@
       </c>
       <c r="K551" s="2"/>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -33287,7 +33287,7 @@
         <v>947</v>
       </c>
       <c r="L555" s="4"/>
-      <c r="M555" s="2" t="s">
+      <c r="M555" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N555" s="2" t="s">
@@ -33427,7 +33427,7 @@
         <v>948</v>
       </c>
       <c r="L558" s="4"/>
-      <c r="M558" s="2" t="s">
+      <c r="M558" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N558" s="2" t="s">
@@ -33687,7 +33687,7 @@
       </c>
       <c r="K563" s="2"/>
       <c r="L563" s="4"/>
-      <c r="M563" s="2" t="s">
+      <c r="M563" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N563" s="2" t="s">
@@ -33839,7 +33839,7 @@
         <v>950</v>
       </c>
       <c r="L566" s="4"/>
-      <c r="M566" s="2" t="s">
+      <c r="M566" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N566" s="2" t="s">
@@ -33987,7 +33987,7 @@
       </c>
       <c r="K569" s="2"/>
       <c r="L569" s="4"/>
-      <c r="M569" s="2" t="s">
+      <c r="M569" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N569" s="2" t="s">
@@ -34191,7 +34191,7 @@
         <v>952</v>
       </c>
       <c r="L573" s="4"/>
-      <c r="M573" s="2" t="s">
+      <c r="M573" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N573" s="2" t="s">
@@ -34587,7 +34587,7 @@
         <v>953</v>
       </c>
       <c r="L581" s="4"/>
-      <c r="M581" s="2" t="s">
+      <c r="M581" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N581" s="2" t="s">
@@ -34837,7 +34837,7 @@
         <v>929</v>
       </c>
       <c r="L586" s="4"/>
-      <c r="M586" s="2" t="s">
+      <c r="M586" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N586" s="2" t="s">
@@ -35025,7 +35025,7 @@
         <v>954</v>
       </c>
       <c r="L590" s="4"/>
-      <c r="M590" s="2" t="s">
+      <c r="M590" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N590" s="2" t="s">
@@ -35359,7 +35359,7 @@
         <v>955</v>
       </c>
       <c r="L597" s="4"/>
-      <c r="M597" s="2" t="s">
+      <c r="M597" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N597" s="2" t="s">
@@ -35547,7 +35547,7 @@
         <v>956</v>
       </c>
       <c r="L601" s="4"/>
-      <c r="M601" s="2" t="s">
+      <c r="M601" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N601" s="2" t="s">
@@ -35793,7 +35793,7 @@
         <v>957</v>
       </c>
       <c r="L606" s="4"/>
-      <c r="M606" s="2" t="s">
+      <c r="M606" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N606" s="2" t="s">
@@ -35931,7 +35931,7 @@
       </c>
       <c r="K609" s="2"/>
       <c r="L609" s="4"/>
-      <c r="M609" s="2" t="s">
+      <c r="M609" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N609" s="2" t="s">
@@ -36075,7 +36075,7 @@
       </c>
       <c r="K612" s="2"/>
       <c r="L612" s="4"/>
-      <c r="M612" s="2" t="s">
+      <c r="M612" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N612" s="2" t="s">
@@ -36213,7 +36213,7 @@
         <v>958</v>
       </c>
       <c r="L615" s="4"/>
-      <c r="M615" s="2" t="s">
+      <c r="M615" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N615" s="2" t="s">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="K618" s="2"/>
       <c r="L618" s="4"/>
-      <c r="M618" s="2" t="s">
+      <c r="M618" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N618" s="2" t="s">
@@ -36673,7 +36673,7 @@
         <v>960</v>
       </c>
       <c r="L624" s="4"/>
-      <c r="M624" s="2" t="s">
+      <c r="M624" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N624" s="2" t="s">
@@ -36811,7 +36811,7 @@
       </c>
       <c r="K627" s="2"/>
       <c r="L627" s="4"/>
-      <c r="M627" s="2" t="s">
+      <c r="M627" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N627" s="2" t="s">
@@ -36955,7 +36955,7 @@
       </c>
       <c r="K630" s="2"/>
       <c r="L630" s="4"/>
-      <c r="M630" s="2" t="s">
+      <c r="M630" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N630" s="2" t="s">
@@ -37091,7 +37091,7 @@
       </c>
       <c r="K633" s="2"/>
       <c r="L633" s="4"/>
-      <c r="M633" s="2" t="s">
+      <c r="M633" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N633" s="2" t="s">
@@ -37237,7 +37237,7 @@
       </c>
       <c r="K636" s="2"/>
       <c r="L636" s="4"/>
-      <c r="M636" s="2" t="s">
+      <c r="M636" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N636" s="2" t="s">
@@ -37603,7 +37603,7 @@
         <v>961</v>
       </c>
       <c r="L643" s="4"/>
-      <c r="M643" s="2" t="s">
+      <c r="M643" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N643" s="2" t="s">
@@ -37741,7 +37741,7 @@
       </c>
       <c r="K646" s="2"/>
       <c r="L646" s="4"/>
-      <c r="M646" s="2" t="s">
+      <c r="M646" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N646" s="2" t="s">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="K649" s="2"/>
       <c r="L649" s="4"/>
-      <c r="M649" s="2" t="s">
+      <c r="M649" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N649" s="2" t="s">
@@ -38021,7 +38021,7 @@
       </c>
       <c r="K652" s="2"/>
       <c r="L652" s="4"/>
-      <c r="M652" s="2" t="s">
+      <c r="M652" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N652" s="2" t="s">
@@ -38167,7 +38167,7 @@
       </c>
       <c r="K655" s="2"/>
       <c r="L655" s="4"/>
-      <c r="M655" s="2" t="s">
+      <c r="M655" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N655" s="2" t="s">
@@ -38317,7 +38317,7 @@
         <v>961</v>
       </c>
       <c r="L658" s="4"/>
-      <c r="M658" s="2" t="s">
+      <c r="M658" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N658" s="2" t="s">
@@ -38589,7 +38589,7 @@
       </c>
       <c r="K664" s="2"/>
       <c r="L664" s="4"/>
-      <c r="M664" s="2" t="s">
+      <c r="M664" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N664" s="2" t="s">
@@ -38739,7 +38739,7 @@
         <v>963</v>
       </c>
       <c r="L667" s="4"/>
-      <c r="M667" s="2" t="s">
+      <c r="M667" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N667" s="2" t="s">
@@ -38877,7 +38877,7 @@
       </c>
       <c r="K670" s="2"/>
       <c r="L670" s="4"/>
-      <c r="M670" s="2" t="s">
+      <c r="M670" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N670" s="2" t="s">
@@ -39023,7 +39023,7 @@
       </c>
       <c r="K673" s="2"/>
       <c r="L673" s="4"/>
-      <c r="M673" s="2" t="s">
+      <c r="M673" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N673" s="2" t="s">
@@ -39171,7 +39171,7 @@
       </c>
       <c r="K676" s="2"/>
       <c r="L676" s="4"/>
-      <c r="M676" s="2" t="s">
+      <c r="M676" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N676" s="2" t="s">
@@ -39307,7 +39307,7 @@
       </c>
       <c r="K679" s="2"/>
       <c r="L679" s="4"/>
-      <c r="M679" s="2" t="s">
+      <c r="M679" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N679" s="2" t="s">
@@ -39457,7 +39457,7 @@
         <v>964</v>
       </c>
       <c r="L682" s="4"/>
-      <c r="M682" s="2" t="s">
+      <c r="M682" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N682" s="2" t="s">
@@ -39593,7 +39593,7 @@
       </c>
       <c r="K685" s="2"/>
       <c r="L685" s="4"/>
-      <c r="M685" s="2" t="s">
+      <c r="M685" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N685" s="2" t="s">
@@ -39837,7 +39837,7 @@
       </c>
       <c r="K690" s="2"/>
       <c r="L690" s="4"/>
-      <c r="M690" s="2" t="s">
+      <c r="M690" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N690" s="2" t="s">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K694" s="2"/>
       <c r="L694" s="4"/>
-      <c r="M694" s="2" t="s">
+      <c r="M694" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N694" s="2" t="s">
@@ -40437,7 +40437,7 @@
         <v>966</v>
       </c>
       <c r="L702" s="4"/>
-      <c r="M702" s="2" t="s">
+      <c r="M702" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N702" s="2" t="s">
@@ -40575,7 +40575,7 @@
       </c>
       <c r="K705" s="2"/>
       <c r="L705" s="4"/>
-      <c r="M705" s="2" t="s">
+      <c r="M705" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N705" s="2" t="s">
@@ -40723,7 +40723,7 @@
       </c>
       <c r="K708" s="2"/>
       <c r="L708" s="4"/>
-      <c r="M708" s="2" t="s">
+      <c r="M708" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N708" s="2" t="s">
@@ -41063,7 +41063,7 @@
         <v>968</v>
       </c>
       <c r="L715" s="4"/>
-      <c r="M715" s="2" t="s">
+      <c r="M715" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N715" s="2" t="s">
@@ -41201,7 +41201,7 @@
       </c>
       <c r="K718" s="2"/>
       <c r="L718" s="4"/>
-      <c r="M718" s="2" t="s">
+      <c r="M718" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N718" s="2" t="s">
@@ -41349,7 +41349,7 @@
       </c>
       <c r="K721" s="2"/>
       <c r="L721" s="4"/>
-      <c r="M721" s="2" t="s">
+      <c r="M721" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N721" s="2" t="s">
@@ -41575,7 +41575,7 @@
       </c>
       <c r="K726" s="2"/>
       <c r="L726" s="4"/>
-      <c r="M726" s="2" t="s">
+      <c r="M726" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N726" s="2" t="s">
@@ -41909,7 +41909,7 @@
       </c>
       <c r="K733" s="2"/>
       <c r="L733" s="4"/>
-      <c r="M733" s="2" t="s">
+      <c r="M733" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N733" s="2" t="s">
@@ -42311,7 +42311,7 @@
         <v>969</v>
       </c>
       <c r="L741" s="4"/>
-      <c r="M741" s="2" t="s">
+      <c r="M741" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N741" s="2" t="s">
@@ -42607,7 +42607,7 @@
       </c>
       <c r="K747" s="2"/>
       <c r="L747" s="4"/>
-      <c r="M747" s="2" t="s">
+      <c r="M747" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N747" s="2" t="s">
@@ -42757,7 +42757,7 @@
         <v>970</v>
       </c>
       <c r="L750" s="4"/>
-      <c r="M750" s="2" t="s">
+      <c r="M750" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N750" s="2" t="s">
@@ -43257,7 +43257,7 @@
       </c>
       <c r="K760" s="2"/>
       <c r="L760" s="4"/>
-      <c r="M760" s="2" t="s">
+      <c r="M760" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N760" s="2" t="s">
@@ -43405,7 +43405,7 @@
       </c>
       <c r="K763" s="2"/>
       <c r="L763" s="4"/>
-      <c r="M763" s="2" t="s">
+      <c r="M763" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N763" s="2" t="s">
@@ -43795,7 +43795,7 @@
         <v>973</v>
       </c>
       <c r="L771" s="4"/>
-      <c r="M771" s="2" t="s">
+      <c r="M771" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N771" s="2" t="s">
@@ -44295,7 +44295,7 @@
       </c>
       <c r="K781" s="2"/>
       <c r="L781" s="4"/>
-      <c r="M781" s="2" t="s">
+      <c r="M781" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N781" s="2" t="s">
@@ -44443,7 +44443,7 @@
       </c>
       <c r="K784" s="2"/>
       <c r="L784" s="4"/>
-      <c r="M784" s="2" t="s">
+      <c r="M784" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N784" s="2"/>
